--- a/cmd/simplerpg/data/Sorted_New_Weapons_Data_by_Material.xlsx
+++ b/cmd/simplerpg/data/Sorted_New_Weapons_Data_by_Material.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimzord12\Codebases\GitHub\learning-go-fantan\cmd\simplerpg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AE3D4057-6F63-4803-9554-27CB13B37EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1113BF96-22CF-4CF8-9D24-2C8039A08808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="43180" yWindow="4570" windowWidth="28800" windowHeight="15460"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sorted_New_Weapons_Data_by_Mate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
   <si>
     <t>Material</t>
   </si>
@@ -158,12 +169,33 @@
   </si>
   <si>
     <t>STM Heavy</t>
+  </si>
+  <si>
+    <t>MonsterHP-Simple</t>
+  </si>
+  <si>
+    <t>MonsterHP-Elite</t>
+  </si>
+  <si>
+    <t>MonsterHP-Boss</t>
+  </si>
+  <si>
+    <t>140-160</t>
+  </si>
+  <si>
+    <t>200-220</t>
+  </si>
+  <si>
+    <t>80-100</t>
+  </si>
+  <si>
+    <t>260-280</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -728,11 +760,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="23" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="23" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="23" applyBorder="1"/>
@@ -789,6 +818,54 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="16" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="23" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="23" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="16" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="16" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="28" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="16" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="16" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="40" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="16" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="36" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="16" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1144,12 +1221,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1161,802 +1238,932 @@
     <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="20">
         <v>25</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="20">
         <v>0.63</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="20">
         <v>11.25</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>4.5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>19</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>27</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>2.75</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>15.5</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>28</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>3.62</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>17.25</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>29</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>1.63</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>13.25</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="25" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="26">
+      <c r="C7" s="40"/>
+      <c r="D7" s="23">
         <v>2.6259999999999999</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="23">
         <v>15.25</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>1.25</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>15.63</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>9</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>35</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <v>5.5</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <v>26.25</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>7.25</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>30.63</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>4</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>3.25</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <v>20.63</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="28" t="s">
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="29">
+      <c r="C13" s="45"/>
+      <c r="D13" s="26">
         <v>5.25</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="26">
         <v>25.628</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="27"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>5</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>1.5</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>22.75</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>6</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>10.8</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <v>55.3</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>7</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>6.6</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="8">
         <v>40.6</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="11">
-        <v>8</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="8">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <v>47.95</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>9</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8">
         <v>3.9</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="8">
         <v>31.15</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="31" t="s">
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="32">
+      <c r="C19" s="44"/>
+      <c r="D19" s="29">
         <v>6.3</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="29">
         <v>39.549999999999997</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="11">
         <v>15</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="11">
         <v>1.75</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="11">
         <v>40.5</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>16</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="11">
         <v>12.6</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="11">
         <v>105.6</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="11">
         <v>17</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="11">
         <v>7.7</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="11">
         <v>76.2</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="11">
         <v>18</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="11">
         <v>10.15</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="11">
         <v>90.9</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="11">
         <v>19</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="11">
         <v>4.55</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="11">
         <v>57.3</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="34" t="s">
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="35">
+      <c r="C25" s="43"/>
+      <c r="D25" s="32">
         <v>7.35</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="32">
         <v>74.099999999999994</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="33"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="14">
         <v>20</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="14">
         <v>2.13</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="14">
         <v>71.25</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="14">
         <v>21</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="14">
         <v>15.3</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="14">
         <v>203</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="14">
         <v>22</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="14">
         <v>9.35</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="14">
         <v>143.5</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="14">
         <v>23</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="14">
         <v>12.33</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="14">
         <v>173.25</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="14">
         <v>24</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="14">
         <v>5.53</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="14">
         <v>105.25</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="37" t="s">
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="38">
+      <c r="C31" s="42"/>
+      <c r="D31" s="35">
         <v>8.9280000000000008</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="35">
         <v>139.25</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="19" t="s">
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="17">
         <v>10</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="17">
         <v>1.5</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="17">
         <v>97.5</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="17">
         <v>11</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="17">
         <v>10.8</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="17">
         <v>237</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="19" t="s">
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="17">
         <v>12</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="17">
         <v>6.6</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="17">
         <v>174</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="19" t="s">
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="17">
         <v>13</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="17">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="17">
         <v>205.5</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="19" t="s">
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="17">
         <v>14</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="17">
         <v>3.9</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="17">
         <v>133.5</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="40" t="s">
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="41">
+      <c r="C37" s="41"/>
+      <c r="D37" s="38">
         <v>6.3</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="38">
         <v>169.5</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="42"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
